--- a/examples/failures/artifact/script/PlanTest-Script2.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{76A7DFF0-1501-2C44-A8B1-8A2FA406B813}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="10500" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10980" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="10500" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10980"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -21,11 +21,11 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -46,13 +46,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1702,6 +1703,21 @@
   </si>
   <si>
     <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1725,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1887,8 +1903,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2060,8 +2379,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -2425,6 +3203,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2432,7 +4188,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2565,52 +4321,196 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2965,9 +4865,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3050,21 +4950,24 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3142,21 +5045,24 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -3227,22 +5133,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3310,22 +5216,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3384,22 +5290,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>350</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3452,22 +5358,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3514,22 +5420,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3570,22 +5476,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3626,13 +5532,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3667,13 +5573,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3705,13 +5611,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3743,13 +5649,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3778,13 +5684,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -3813,13 +5719,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -3845,13 +5751,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -3877,13 +5783,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -3903,13 +5809,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -3926,10 +5832,10 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3946,10 +5852,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -3966,10 +5872,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -3986,10 +5892,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -3998,7 +5904,7 @@
         <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>546</v>
       </c>
       <c r="G22" t="s">
         <v>295</v>
@@ -4006,10 +5912,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4018,7 +5924,7 @@
         <v>352</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>286</v>
@@ -4026,10 +5932,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4038,7 +5944,7 @@
         <v>392</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
         <v>275</v>
@@ -4046,19 +5952,19 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>107</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>545</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>74</v>
@@ -4066,19 +5972,19 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>108</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="G26" t="s">
         <v>278</v>
@@ -4086,19 +5992,19 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>109</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>262</v>
@@ -4106,19 +6012,19 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>110</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>279</v>
@@ -4126,16 +6032,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G29" t="s">
         <v>280</v>
@@ -4143,117 +6049,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>409</v>
       </c>
       <c r="E30" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>223</v>
+      </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4261,7 +6173,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4269,609 +6181,615 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y42" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y43" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y44" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y47" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z47" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y48" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z48" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y49" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y50" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z50" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y52" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y53" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y54" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z54" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y55" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z55" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y56" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z56" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y57" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z57" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y58" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z58" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y59" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z59" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y60" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z60" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y61" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y62" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y63" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y64" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y65" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y66" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z66" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y67" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z67" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y68" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z68" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y69" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z69" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y70" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z70" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y71" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z71" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y72" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z72" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y73" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y74" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y75" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z75" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y76" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z76" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y77" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z77" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y78" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z78" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y79" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z79" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y80" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z80" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y81" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y82" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z82" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y83" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z83" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y84" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y85" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z85" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y86" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z86" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y87" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z87" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y88" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z88" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y89" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z89" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y90" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z90" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y91" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z91" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y92" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z92" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y93" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z93" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y94" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z94" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Y95" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4884,7 +6802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/examples/failures/artifact/script/PlanTest-Script2.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script2.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -46,13 +46,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1718,6 +1718,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1728,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2206,8 +2209,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2838,8 +2942,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4181,6 +4438,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4188,7 +4771,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4465,52 +5048,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4865,7 +5496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4950,24 +5581,21 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
-        <v>545</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AD1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5045,24 +5673,21 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
-        <v>547</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AD2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5133,22 +5758,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5216,22 +5841,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
+      <c r="Y4" t="s">
+        <v>349</v>
+      </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AD4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5290,22 +5915,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
+      <c r="Y5" t="s">
+        <v>350</v>
+      </c>
       <c r="Z5" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5358,22 +5983,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AA6" t="s">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AD6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5420,22 +6045,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AA7" t="s">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AD7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5476,22 +6101,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5532,13 +6157,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5573,13 +6198,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5611,13 +6236,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5649,13 +6274,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5684,13 +6309,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5719,13 +6344,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5751,13 +6376,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5775,7 +6400,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>550</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -5783,13 +6408,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5807,15 +6432,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5832,10 +6457,13 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5852,10 +6480,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5872,10 +6500,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5892,10 +6520,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5912,10 +6540,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>489</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5932,10 +6560,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5952,16 +6580,16 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>545</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -5972,16 +6600,16 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>444</v>
@@ -5992,16 +6620,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -6012,16 +6640,16 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -6032,13 +6660,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
         <v>463</v>
@@ -6049,13 +6677,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
@@ -6063,21 +6691,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6088,7 +6713,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6099,7 +6724,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6110,7 +6735,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6121,7 +6746,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6132,7 +6757,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6143,7 +6768,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6154,7 +6779,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6165,7 +6790,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6173,7 +6798,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6181,7 +6806,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6189,7 +6814,7 @@
       <c r="G42" t="s">
         <v>548</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6197,7 +6822,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6205,7 +6830,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6213,7 +6838,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6221,7 +6846,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6229,7 +6854,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6237,7 +6862,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6245,7 +6870,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6253,7 +6878,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>544</v>
       </c>
     </row>
@@ -6261,7 +6886,7 @@
       <c r="G51" t="s">
         <v>363</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6269,7 +6894,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6277,7 +6902,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6285,7 +6910,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6293,7 +6918,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6301,7 +6926,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6309,7 +6934,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6317,7 +6942,7 @@
       <c r="G58" t="s">
         <v>549</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6325,7 +6950,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6333,7 +6958,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6341,7 +6966,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6349,7 +6974,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6357,7 +6982,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6365,7 +6990,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6373,7 +6998,7 @@
       <c r="G65" t="s">
         <v>364</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6381,7 +7006,7 @@
       <c r="G66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6389,7 +7014,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6397,7 +7022,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6405,7 +7030,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6413,7 +7038,7 @@
       <c r="G70" t="s">
         <v>520</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6421,7 +7046,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6429,7 +7054,7 @@
       <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6437,7 +7062,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6445,7 +7070,7 @@
       <c r="G74" t="s">
         <v>406</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6453,7 +7078,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6461,7 +7086,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6469,7 +7094,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6477,7 +7102,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6485,7 +7110,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6493,7 +7118,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6501,7 +7126,7 @@
       <c r="G81" t="s">
         <v>424</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6509,7 +7134,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6517,7 +7142,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6525,7 +7150,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6533,7 +7158,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6541,7 +7166,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6549,7 +7174,7 @@
       <c r="G87" t="s">
         <v>523</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6557,7 +7182,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>449</v>
       </c>
     </row>
@@ -6565,7 +7190,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6573,7 +7198,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6581,7 +7206,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6589,7 +7214,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6597,7 +7222,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6605,7 +7230,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6613,7 +7238,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6621,7 +7246,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6629,167 +7254,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/PlanTest-Script2.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script2.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="557">
   <si>
     <t>description</t>
   </si>
@@ -1721,6 +1721,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1746,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2310,8 +2328,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3095,8 +3416,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -4764,6 +5544,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4771,7 +6529,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5096,52 +6854,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5496,7 +7398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5877,7 +7779,7 @@
         <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>554</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -5951,7 +7853,7 @@
         <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>443</v>
@@ -6013,7 +7915,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>442</v>
@@ -6075,7 +7977,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -6131,7 +8033,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -6175,7 +8077,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
@@ -6216,7 +8118,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -6254,7 +8156,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -6292,7 +8194,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -6327,7 +8229,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -6362,7 +8264,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>482</v>
@@ -6394,7 +8296,7 @@
         <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -6426,7 +8328,7 @@
         <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -6452,7 +8354,7 @@
         <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>458</v>
@@ -6475,7 +8377,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -6495,7 +8397,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -6515,7 +8417,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>375</v>
@@ -6535,7 +8437,7 @@
         <v>546</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>465</v>
@@ -6555,7 +8457,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -6575,13 +8477,13 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>551</v>
       </c>
       <c r="AD24" t="s">
         <v>528</v>
@@ -6595,13 +8497,13 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>519</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>529</v>
@@ -6615,13 +8517,13 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
@@ -6635,13 +8537,13 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>429</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
@@ -6655,13 +8557,13 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -6672,13 +8574,13 @@
         <v>463</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -6689,10 +8591,10 @@
         <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -6700,10 +8602,10 @@
         <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -6711,10 +8613,10 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -6722,10 +8624,10 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -6733,10 +8635,10 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35">
@@ -6744,10 +8646,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -6755,10 +8657,10 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -6766,10 +8668,10 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -6777,10 +8679,10 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -6788,633 +8690,661 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
-        <v>522</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>548</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>548</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
-        <v>544</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>549</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>549</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
-        <v>436</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
-        <v>448</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s">
-        <v>491</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>437</v>
+        <v>556</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>274</v>
       </c>
-      <c r="Y97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>493</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>517</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>518</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>148</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/PlanTest-Script2.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script2.xlsx
@@ -21,39 +21,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6162" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1739,6 +1740,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1765,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2631,8 +2650,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3875,8 +4096,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -6522,6 +7049,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6529,7 +7708,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6998,52 +8177,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7398,7 +8673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7423,81 +8698,84 @@
         <v>471</v>
       </c>
       <c r="E1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>472</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>391</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>352</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>392</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7515,81 +8793,84 @@
         <v>473</v>
       </c>
       <c r="E2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>445</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>456</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>379</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>483</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>425</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>393</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>414</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>376</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>402</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -7606,76 +8887,76 @@
       <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>453</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>360</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>507</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>394</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>416</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>377</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7689,82 +8970,82 @@
       <c r="D4" t="s">
         <v>474</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>446</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>508</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>485</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>395</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>417</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
         <v>370</v>
@@ -7772,73 +9053,73 @@
       <c r="D5" t="s">
         <v>475</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>454</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>428</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>554</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>455</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>521</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>457</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>509</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>396</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>418</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
-        <v>350</v>
-      </c>
       <c r="Z5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>371</v>
@@ -7846,1505 +9127,1513 @@
       <c r="D6" t="s">
         <v>476</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>477</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>510</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>386</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>397</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>530</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>413</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>398</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>361</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>480</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>399</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>362</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>513</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>400</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>447</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>514</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>432</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>560</v>
+      </c>
+      <c r="H11" t="s">
         <v>348</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>466</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>515</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>385</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>543</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>516</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>431</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>467</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>260</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>482</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>486</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
         <v>380</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>550</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>487</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>410</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>458</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" t="s">
         <v>546</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>295</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>551</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>275</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>107</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>444</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>463</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>411</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>522</v>
+      <c r="Z41" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>548</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>549</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/PlanTest-Script2.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script2.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6162" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1758,6 +1758,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1780,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2852,8 +2867,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4402,8 +4619,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -4440,6 +4963,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7708,7 +8883,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8273,52 +9448,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="276" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="279" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="282" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="285" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="291" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="282" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8989,7 +10260,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>566</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -9025,7 +10296,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>567</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -9072,7 +10343,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -9143,7 +10414,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -9205,7 +10476,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -9264,7 +10535,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -9320,7 +10591,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -9364,7 +10635,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -9405,7 +10676,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -9443,7 +10714,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N12" t="s">
         <v>543</v>
@@ -9481,7 +10752,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -9516,7 +10787,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -9548,7 +10819,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -9580,7 +10851,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>550</v>
@@ -9612,7 +10883,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -9638,7 +10909,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -9655,13 +10926,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>565</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -9675,13 +10946,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -9695,13 +10966,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -9715,13 +10986,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>546</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>564</v>
       </c>
       <c r="Z22" t="s">
         <v>489</v>
@@ -9735,13 +11006,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>546</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -9755,13 +11026,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>551</v>
@@ -9775,13 +11046,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -9795,13 +11066,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -9815,13 +11086,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -9835,13 +11106,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -9852,13 +11123,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -9869,10 +11140,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -9883,7 +11157,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -9894,7 +11168,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -9905,7 +11179,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -9916,7 +11190,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -9927,7 +11201,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -9938,7 +11212,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -9949,7 +11223,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -9960,7 +11234,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -9971,7 +11245,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -9981,6 +11255,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/examples/failures/artifact/script/PlanTest-Script2.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script2.xlsx
@@ -21,13 +21,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7852" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1773,6 +1773,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3069,8 +3078,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4925,8 +5035,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="387">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -4963,6 +5226,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8883,7 +9472,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9544,52 +10133,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="303" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="306" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="309" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="312" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="318" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="309" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9944,7 +10581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10410,6 +11047,9 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>568</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -10926,7 +11566,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>565</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -10946,7 +11586,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -10966,7 +11606,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -10986,7 +11626,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>546</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -11006,7 +11646,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>546</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -11026,7 +11666,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -11046,7 +11686,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -11066,7 +11706,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -11086,7 +11726,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -11106,7 +11746,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -11123,7 +11763,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -11140,7 +11780,7 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -11157,7 +11797,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -11168,7 +11808,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -11179,7 +11819,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -11190,7 +11830,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -11201,7 +11841,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -11212,7 +11852,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -11223,7 +11863,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -11234,7 +11874,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -11245,7 +11885,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -11255,9 +11895,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -11731,186 +12368,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>569</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>570</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>559</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>553</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/PlanTest-Script2.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script2.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7852" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8417" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1789,7 +1789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3179,8 +3179,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5188,8 +5289,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -5226,6 +5480,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9472,7 +10052,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10181,52 +10761,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="336" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/failures/artifact/script/PlanTest-Script2.xlsx
+++ b/examples/failures/artifact/script/PlanTest-Script2.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8417" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8982" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1789,7 +1789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3280,8 +3280,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5442,8 +5543,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="483">
     <border>
       <left/>
       <right/>
@@ -5480,6 +5734,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -10052,7 +10632,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10809,52 +11389,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="357" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="360" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="363" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="366" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="372" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="363" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="384" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="387" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="390" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="393" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="399" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="390" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
